--- a/MRIO/Inputs/Support information for MRIO/Scenarios.xlsx
+++ b/MRIO/Inputs/Support information for MRIO/Scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\MEAT_SSA\MRIO\Inputs\Support information for MRIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E60724-CC10-47BB-9FB7-E979FBEF0EC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A351F9-F686-4D06-BA51-E2C2C0B2C2A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34080" yWindow="-1005" windowWidth="28800" windowHeight="15825" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29595" yWindow="-2940" windowWidth="17280" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>ref</t>
   </si>
@@ -71,9 +71,6 @@
     <t>WM</t>
   </si>
   <si>
-    <t>WF</t>
-  </si>
-  <si>
     <t>Y_Africa_meat</t>
   </si>
   <si>
@@ -83,24 +80,15 @@
     <t>Every scenario, in every year is refered to the frame of reference which has the following characteristics:</t>
   </si>
   <si>
-    <t>ref_name</t>
-  </si>
-  <si>
     <t>South Africa</t>
   </si>
   <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>RoW - Latin America</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
-    <t>RoW - Middle East</t>
-  </si>
-  <si>
     <t>- It starts from the economic framework of 2011 in the region WF (RoW - Africa) and goes towards ZA (South Africa) situation.</t>
   </si>
   <si>
@@ -119,9 +107,6 @@
     <t>Results, for each scenario, will be reffered to the respective 'Frame of reference' data (e.g. GHG emission of scenario 2040 in Middle east will be provided as a difference with 2040 GHG emission with the 'Frame of reference' technology and final demand - which will be constant at EXIOBASE 2011 level)</t>
   </si>
   <si>
-    <t>sensitivity</t>
-  </si>
-  <si>
     <t>Median</t>
   </si>
   <si>
@@ -129,6 +114,18 @@
   </si>
   <si>
     <t>Ref</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>EXIOBASE</t>
+  </si>
+  <si>
+    <t>RoW America</t>
+  </si>
+  <si>
+    <t>RoW Middle East</t>
   </si>
 </sst>
 </file>
@@ -495,37 +492,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -538,7 +535,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,22 +545,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
@@ -574,16 +574,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -605,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -619,7 +619,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -633,7 +633,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -652,7 +652,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,7 +679,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -724,13 +724,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDFA339-3AC4-4346-9740-7658E40F3459}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
@@ -751,7 +754,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -771,7 +774,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -787,20 +790,6 @@
       </c>
       <c r="F3" s="4">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/MRIO/Inputs/Support information for MRIO/Scenarios.xlsx
+++ b/MRIO/Inputs/Support information for MRIO/Scenarios.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\MEAT_SSA\MRIO\Inputs\Support information for MRIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A351F9-F686-4D06-BA51-E2C2C0B2C2A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACCED7A-9590-4775-BCEF-730EE1816EC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29595" yWindow="-2940" windowWidth="17280" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Readme" sheetId="3" r:id="rId1"/>
-    <sheet name="Reference countries" sheetId="1" r:id="rId2"/>
-    <sheet name="Change rates" sheetId="2" r:id="rId3"/>
-    <sheet name="Change rates_v2" sheetId="4" r:id="rId4"/>
+    <sheet name="Reference countries" sheetId="1" r:id="rId1"/>
+    <sheet name="Change rates" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>ref</t>
   </si>
@@ -77,9 +75,6 @@
     <t>Frame of reference</t>
   </si>
   <si>
-    <t>Every scenario, in every year is refered to the frame of reference which has the following characteristics:</t>
-  </si>
-  <si>
     <t>South Africa</t>
   </si>
   <si>
@@ -87,24 +82,6 @@
   </si>
   <si>
     <t>China</t>
-  </si>
-  <si>
-    <t>- It starts from the economic framework of 2011 in the region WF (RoW - Africa) and goes towards ZA (South Africa) situation.</t>
-  </si>
-  <si>
-    <t>For every scenario the technological structure of RoW strive towards the most typical country of the region that has been model for deriving the final demand of meat for that scenario.</t>
-  </si>
-  <si>
-    <t>In a sense, we are imagining that both economic structure and demand of meat are following the same characteristic region.</t>
-  </si>
-  <si>
-    <t>This information can be found in the 'Reference countries' sheet.</t>
-  </si>
-  <si>
-    <t>- Like every other scenario, the rate of change of coefficients (both endogenous and exogenous coefficients) follow the same pattern described in sheet 'Change rates'</t>
-  </si>
-  <si>
-    <t>Results, for each scenario, will be reffered to the respective 'Frame of reference' data (e.g. GHG emission of scenario 2040 in Middle east will be provided as a difference with 2040 GHG emission with the 'Frame of reference' technology and final demand - which will be constant at EXIOBASE 2011 level)</t>
   </si>
   <si>
     <t>Median</t>
@@ -191,15 +168,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -481,61 +455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FA2C42-C0FC-44E7-923B-2D7C2B3D6560}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,10 +470,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -559,31 +483,31 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -591,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -605,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -619,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -633,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -647,82 +571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11CD030-5979-471E-A4B5-1569C6BFD447}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2030</v>
-      </c>
-      <c r="E1" s="2">
-        <v>2040</v>
-      </c>
-      <c r="F1" s="2">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDFA339-3AC4-4346-9740-7658E40F3459}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -754,7 +603,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -774,7 +623,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
